--- a/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.09713705259614137</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09539534781088886</v>
+        <v>0.09539534781088883</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04892142233834413</v>
@@ -685,7 +685,7 @@
         <v>0.08730439157979086</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09094250886531952</v>
+        <v>0.0909425088653195</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05586528412242049</v>
@@ -697,7 +697,7 @@
         <v>0.09222787603180355</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09310262215761754</v>
+        <v>0.09310262215761755</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04587417073797805</v>
+        <v>0.04689821406832079</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04978967998465155</v>
+        <v>0.05154734183711174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07735209816507319</v>
+        <v>0.07484080629946198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07804760924583518</v>
+        <v>0.07783658185930993</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03336864423331948</v>
+        <v>0.03410049444298571</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05380260076917452</v>
+        <v>0.05128718935306314</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06579094935914828</v>
+        <v>0.0686685782200132</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07808553794616023</v>
+        <v>0.07586355578169618</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04409174455475719</v>
+        <v>0.04593367501667919</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05623865291971594</v>
+        <v>0.05573113242870374</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07873938283197723</v>
+        <v>0.07632861065600828</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08177103809508963</v>
+        <v>0.08079799024546955</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0817917957267984</v>
+        <v>0.08309315748527139</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09043195596036392</v>
+        <v>0.09146077300422942</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1235440430193431</v>
+        <v>0.1209041131684612</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1165266892265439</v>
+        <v>0.1166719702273358</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06714931144584445</v>
+        <v>0.06725188592078503</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09114264022877462</v>
+        <v>0.09039873679615938</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1119927492701415</v>
+        <v>0.113947357455774</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1069420637374417</v>
+        <v>0.1056427546588593</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06887286887630781</v>
+        <v>0.0689849912507132</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08517178683969799</v>
+        <v>0.08504213202970204</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1071730467758903</v>
+        <v>0.1083638890501362</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1063251497330641</v>
+        <v>0.1070973694664864</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.07866737474311682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08246501290850092</v>
+        <v>0.0824650129085009</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07544050457669224</v>
@@ -821,7 +821,7 @@
         <v>0.07555093852872012</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07545685178094121</v>
+        <v>0.07545685178094122</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.0684505552050511</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04642033563963475</v>
+        <v>0.04811492483260384</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05146801492204587</v>
+        <v>0.04982184911166952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06383088824250957</v>
+        <v>0.0626048782935915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06640848668999981</v>
+        <v>0.06828849089456364</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05819546966544843</v>
+        <v>0.05899326493758213</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06306970359712678</v>
+        <v>0.06398068912128843</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05979767738386018</v>
+        <v>0.05902147347408677</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06449885736095345</v>
+        <v>0.06369750440455636</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05717774178884978</v>
+        <v>0.05688646861980769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06045476160230651</v>
+        <v>0.06057178033218952</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06573637464798644</v>
+        <v>0.06601725799775053</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06956615170478814</v>
+        <v>0.0697513544861031</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0775213842673638</v>
+        <v>0.07747302054442347</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08399348659843049</v>
+        <v>0.08280272176851881</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09649622627061069</v>
+        <v>0.09662356543576131</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09869104954938883</v>
+        <v>0.09872737001514953</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09496182567915605</v>
+        <v>0.09425088083944295</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09947246675785219</v>
+        <v>0.1013156371951738</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09473653219542061</v>
+        <v>0.0943535474136302</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0884095104607751</v>
+        <v>0.08816863339774667</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08099481226109526</v>
+        <v>0.07979863970388668</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08378048216643019</v>
+        <v>0.08519933379524949</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08865551888598125</v>
+        <v>0.09045853272364417</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08970590889448098</v>
+        <v>0.09006001504569754</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.07816456555212456</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05863050233759791</v>
+        <v>0.0586305023375979</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05276860783007561</v>
@@ -969,7 +969,7 @@
         <v>0.08482572062464259</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06832940521947276</v>
+        <v>0.06832940521947277</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03249952941361876</v>
+        <v>0.03287050745624006</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04725678149076661</v>
+        <v>0.04751900546064594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07215949088849076</v>
+        <v>0.07165381346474319</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06101376810104653</v>
+        <v>0.06166599159638179</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04443083144358126</v>
+        <v>0.04352106116852578</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06668974330081694</v>
+        <v>0.06760524827888122</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05887752237807888</v>
+        <v>0.06115178210712392</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0471222459472011</v>
+        <v>0.04608469354187034</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04180950540841394</v>
+        <v>0.04206345803977164</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06193217497304662</v>
+        <v>0.06277502963713731</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07167576597811355</v>
+        <v>0.07108561689269849</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05790606847137124</v>
+        <v>0.05763129251418819</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06505868404349952</v>
+        <v>0.06457902637645822</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08602510056500051</v>
+        <v>0.08624579892377884</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1177355862533187</v>
+        <v>0.1139663936975842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09943129479332968</v>
+        <v>0.09768567032527796</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08021664253746394</v>
+        <v>0.08170058823369521</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1068922076076041</v>
+        <v>0.1066002211728032</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1001300712207924</v>
+        <v>0.1009502447140944</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07136303982020026</v>
+        <v>0.07227711914928399</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06543468635069043</v>
+        <v>0.06542741478346616</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08838709937209074</v>
+        <v>0.09013993230872096</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1002372214256257</v>
+        <v>0.1012615654228496</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08196753006975677</v>
+        <v>0.08063668370857924</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.07573217744513686</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07357418916955694</v>
+        <v>0.07357418916955696</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05404916344245665</v>
@@ -1105,7 +1105,7 @@
         <v>0.07430114387608923</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08223350198590557</v>
+        <v>0.08223350198590558</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0411691575594308</v>
+        <v>0.04042081831375657</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07493123695830931</v>
+        <v>0.07366015048283639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05719083333814685</v>
+        <v>0.05841621693591888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07708049330498667</v>
+        <v>0.07688002499373595</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04155779841489656</v>
+        <v>0.04278751192964546</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07887764206858049</v>
+        <v>0.08085619444614567</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05840203990741365</v>
+        <v>0.0593160235171015</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06229190785183022</v>
+        <v>0.06261860095025451</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0444230398753282</v>
+        <v>0.04486871339198406</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08207299112150794</v>
+        <v>0.08406818243596878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06184664989718976</v>
+        <v>0.06344749491986362</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07198718603461206</v>
+        <v>0.07191822982998076</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06684631691345905</v>
+        <v>0.06699116972172346</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1123130535996636</v>
+        <v>0.1125375512066303</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09088380072744129</v>
+        <v>0.08932333439418358</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1105109947867159</v>
+        <v>0.1124788840722611</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07094134308299815</v>
+        <v>0.07402076294098182</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1184143688262055</v>
+        <v>0.1186688357935161</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0968345969510496</v>
+        <v>0.09566658030631828</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08488828030994025</v>
+        <v>0.08729659003897196</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06453726145644716</v>
+        <v>0.06450394058952283</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1090970261883495</v>
+        <v>0.1115806289718738</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08628105092371745</v>
+        <v>0.08752601160776381</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09194393841338996</v>
+        <v>0.09263782761885414</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.08095670698434509</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08030962241378704</v>
+        <v>0.08030962241378706</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04917020154681201</v>
+        <v>0.0480170571116687</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06336607398399374</v>
+        <v>0.0638707004419605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0749474501917021</v>
+        <v>0.07319576833460832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07840518520783492</v>
+        <v>0.07847424368235967</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05309977319538539</v>
+        <v>0.05334482818254589</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07590954776220786</v>
+        <v>0.07601294083900072</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06843611052221663</v>
+        <v>0.06903631487112906</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06773440672826786</v>
+        <v>0.06838473994997088</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05226630388757596</v>
+        <v>0.0528653090353768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07230410076287572</v>
+        <v>0.0723479820321806</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07432147579491016</v>
+        <v>0.07400058334447875</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07514986108513251</v>
+        <v>0.07491228852290376</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06435310264065641</v>
+        <v>0.06438621055171387</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08326024461877378</v>
+        <v>0.08244612200288264</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0930518462122866</v>
+        <v>0.09290062123889188</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09601834333111516</v>
+        <v>0.0955422645158346</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06913202554855588</v>
+        <v>0.06898246061008288</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09376575404170655</v>
+        <v>0.09487377675308131</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08818656848614737</v>
+        <v>0.0878843147963445</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08052817994761208</v>
+        <v>0.08143849030585887</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06383733091707244</v>
+        <v>0.06407449286721129</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08596331956708025</v>
+        <v>0.08590365769011724</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0880884540616873</v>
+        <v>0.08819571754417484</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08606286569180459</v>
+        <v>0.08566699467729803</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31791</v>
+        <v>32500</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34891</v>
+        <v>36123</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>52197</v>
+        <v>50503</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>53908</v>
+        <v>53763</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>22969</v>
+        <v>23473</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>37355</v>
+        <v>35608</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>44267</v>
+        <v>46203</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>57246</v>
+        <v>55617</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>60906</v>
+        <v>63450</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>78456</v>
+        <v>77748</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>106112</v>
+        <v>102863</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>116427</v>
+        <v>115042</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>56681</v>
+        <v>57583</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>63371</v>
+        <v>64092</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>83368</v>
+        <v>81586</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>80486</v>
+        <v>80586</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>46222</v>
+        <v>46293</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>63279</v>
+        <v>62763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>75353</v>
+        <v>76668</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>78401</v>
+        <v>77448</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>95137</v>
+        <v>95292</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>118819</v>
+        <v>118638</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>144431</v>
+        <v>146035</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>151388</v>
+        <v>152488</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>44647</v>
+        <v>46277</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>52392</v>
+        <v>50716</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>65263</v>
+        <v>64009</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>69657</v>
+        <v>71629</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>56356</v>
+        <v>57129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>64821</v>
+        <v>65758</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>62364</v>
+        <v>61554</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>69068</v>
+        <v>68210</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>110364</v>
+        <v>109802</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>123674</v>
+        <v>123913</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>135768</v>
+        <v>136348</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>147463</v>
+        <v>147856</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74560</v>
+        <v>74514</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>85501</v>
+        <v>84289</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>98661</v>
+        <v>98791</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>103519</v>
+        <v>103557</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>91960</v>
+        <v>91272</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>102235</v>
+        <v>104130</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>98802</v>
+        <v>98403</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>94672</v>
+        <v>94414</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>156336</v>
+        <v>154027</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>171392</v>
+        <v>174294</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>183104</v>
+        <v>186828</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>190155</v>
+        <v>190905</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22051</v>
+        <v>22303</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>35752</v>
+        <v>35950</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>54809</v>
+        <v>54425</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>48938</v>
+        <v>49461</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>30384</v>
+        <v>29761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>51770</v>
+        <v>52481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46220</v>
+        <v>48005</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>38247</v>
+        <v>37405</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>56959</v>
+        <v>57305</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>94931</v>
+        <v>96223</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>110708</v>
+        <v>109796</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>93446</v>
+        <v>93002</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44143</v>
+        <v>43817</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65081</v>
+        <v>65248</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>89426</v>
+        <v>86563</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79752</v>
+        <v>78352</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>54855</v>
+        <v>55870</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>82979</v>
+        <v>82752</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>78603</v>
+        <v>79247</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57923</v>
+        <v>58665</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>89145</v>
+        <v>89135</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>135482</v>
+        <v>138168</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>154823</v>
+        <v>156405</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>132275</v>
+        <v>130127</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38790</v>
+        <v>38085</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>70880</v>
+        <v>69677</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>53620</v>
+        <v>54769</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>76314</v>
+        <v>76116</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>43162</v>
+        <v>44440</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>82724</v>
+        <v>84799</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>60959</v>
+        <v>61913</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>69582</v>
+        <v>69947</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>87995</v>
+        <v>88877</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>163711</v>
+        <v>167690</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>122540</v>
+        <v>125711</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>151684</v>
+        <v>151538</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>62984</v>
+        <v>63121</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>106240</v>
+        <v>106453</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>85210</v>
+        <v>83747</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>109413</v>
+        <v>111361</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>73681</v>
+        <v>76879</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>124189</v>
+        <v>124455</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>101074</v>
+        <v>99855</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>94823</v>
+        <v>97513</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>127838</v>
+        <v>127772</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>217615</v>
+        <v>222569</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>170953</v>
+        <v>173419</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>193734</v>
+        <v>195197</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>161058</v>
+        <v>157281</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>216787</v>
+        <v>218513</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>254398</v>
+        <v>248452</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>276909</v>
+        <v>277153</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>179435</v>
+        <v>180263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>269260</v>
+        <v>269626</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>242575</v>
+        <v>244702</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>252828</v>
+        <v>255256</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>347818</v>
+        <v>351804</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>503836</v>
+        <v>504142</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>515709</v>
+        <v>513482</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>545920</v>
+        <v>544194</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>210790</v>
+        <v>210899</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>284848</v>
+        <v>282063</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>315851</v>
+        <v>315337</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>339115</v>
+        <v>337434</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>233611</v>
+        <v>233105</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>332597</v>
+        <v>336528</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>312581</v>
+        <v>311510</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>300583</v>
+        <v>303981</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>424820</v>
+        <v>426398</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>599017</v>
+        <v>598602</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>611236</v>
+        <v>611981</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>625197</v>
+        <v>622321</v>
       </c>
     </row>
     <row r="24">
